--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dolabaeb\Desktop\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553514EC-E031-45C3-9C35-F9977669408C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75C01DC-ABFD-4673-898A-0329C638A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="1950" windowWidth="18765" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>В2</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>В8</t>
+  </si>
+  <si>
+    <t>В9</t>
+  </si>
+  <si>
+    <t>В10</t>
   </si>
 </sst>
 </file>
@@ -134,10 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -430,292 +435,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="6">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>60</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2155</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2160</v>
-      </c>
-      <c r="E4" s="8">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="2"/>
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="6">
+        <v>525</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="6">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2155</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2160</v>
+      </c>
+      <c r="E7" s="7">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D8" s="5">
         <v>38</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E8" s="6">
         <v>7</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B9" s="3">
         <v>5263</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C9" s="3">
         <v>3960</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D9" s="3">
         <v>1755</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>13</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>14</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>15</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>16</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>17</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>20</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>21</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>22</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>23</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>24</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
         <v>532</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D22" s="3">
         <v>339</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E22" s="3">
         <v>15</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F22" s="6">
         <v>16</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G22" s="6">
         <v>34</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H22" s="6">
         <v>130</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="6">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dolabaeb\Desktop\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75C01DC-ABFD-4673-898A-0329C638A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D242BB41-F755-43ED-81E3-CE32C96F1E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="1950" windowWidth="18765" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10800" yWindow="1920" windowWidth="18765" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>В2</t>
   </si>
@@ -59,13 +59,22 @@
   </si>
   <si>
     <t>В10</t>
+  </si>
+  <si>
+    <t>zxwy</t>
+  </si>
+  <si>
+    <t>44 80</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +101,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,12 +122,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,15 +153,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -435,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,146 +493,136 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="6">
-        <v>8</v>
-      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="6">
-        <v>102</v>
-      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3">
+        <v>1224</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="6">
-        <v>525</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="6">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7">
+        <v>110</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>28</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="3">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>60</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2155</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2160</v>
-      </c>
-      <c r="E7" s="7">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>16</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="3">
+        <v>525</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6">
         <v>7</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3">
+        <v>16</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5263</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3960</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1755</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -622,13 +630,21 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2155</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2160</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3">
+        <v>11</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -636,103 +652,129 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>38</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3">
+        <v>7</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="6">
-        <v>75</v>
-      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5263</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3960</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1755</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>199</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="6">
-        <v>31</v>
-      </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3">
+        <v>112</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="6">
-        <v>17</v>
-      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>430</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="3">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="3">
+        <v>338</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="3">
+        <v>6142</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -740,13 +782,15 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -754,7 +798,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -768,7 +812,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -782,7 +826,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -796,31 +840,93 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3">
+        <v>58</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
         <v>532</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D25" s="3">
         <v>339</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E25" s="3">
         <v>15</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F25" s="3">
         <v>16</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G25" s="3">
         <v>34</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H25" s="3">
         <v>130</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="6">
+      <c r="I25" s="2"/>
+      <c r="J25" s="3">
         <v>47</v>
       </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
